--- a/src/assets/xlxs/за етикети.xlsx
+++ b/src/assets/xlxs/за етикети.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milenmladenov/asset-management-fe/src/assets/xlxs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milenmladenov/asset-management-fe-1/src/assets/xlxs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20FEC2-C195-4546-8916-BEAAF083BA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14214BF8-6939-8B44-A653-D9579CA0162C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">label!$A$1:$H$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">label!$A$1:$H$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +103,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -139,6 +147,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,7 +180,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I2">
@@ -268,7 +279,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I3">
@@ -367,7 +378,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I4">
@@ -460,13 +471,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I5">
@@ -512,8 +523,8 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{05BCAE2D-052B-4E64-AEE2-81A508B18285}" type="TxLink">
-            <a:rPr lang="bg-BG" sz="3200" b="1" cap="none" spc="0">
+          <a:fld id="{21F00851-EA98-1040-9B3A-C1B4ED8B5259}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0">
               <a:ln w="18000">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
@@ -521,7 +532,9 @@
                 <a:prstDash val="solid"/>
                 <a:miter lim="800000"/>
               </a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
                   <a:srgbClr val="000000">
@@ -529,8 +542,9 @@
                   </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:pPr algn="ctr"/>
             <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="bg-BG" sz="3200" b="1" cap="none" spc="0">
@@ -559,13 +573,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I6">
@@ -658,13 +672,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I7">
@@ -757,13 +771,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I8">
@@ -856,13 +870,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I9">
@@ -955,13 +969,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>171452</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I10">
@@ -1054,13 +1068,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I11">
@@ -1153,13 +1167,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I12">
@@ -1252,13 +1266,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I13">
@@ -1351,13 +1365,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I14">
@@ -1450,13 +1464,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>171452</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I15">
@@ -1549,13 +1563,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I16">
@@ -1648,13 +1662,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I17">
@@ -1747,13 +1761,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I18">
@@ -1846,13 +1860,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I19">
@@ -1945,13 +1959,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I20">
@@ -2044,13 +2058,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>171452</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I21">
@@ -2143,13 +2157,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I22">
@@ -2242,13 +2256,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>20957</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I29">
@@ -2341,13 +2355,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I24">
@@ -2440,13 +2454,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I25">
@@ -2539,13 +2553,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I26">
@@ -2638,13 +2652,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I27">
@@ -2737,13 +2751,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I28">
@@ -2836,13 +2850,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>5717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I30">
@@ -2935,13 +2949,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>171452</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I31">
@@ -3034,13 +3048,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I32">
@@ -3133,13 +3147,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I33">
@@ -3232,13 +3246,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I34">
@@ -3331,13 +3345,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I35">
@@ -3430,13 +3444,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>179072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I36">
@@ -3529,13 +3543,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I37">
@@ -3628,13 +3642,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>97155</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1516380</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>188597</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I38">
@@ -3727,13 +3741,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I39">
@@ -3826,13 +3840,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I40">
@@ -3925,13 +3939,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I41">
@@ -4024,13 +4038,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>127635</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>171452</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I42">
@@ -4123,13 +4137,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>179072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I43">
@@ -4222,13 +4236,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="[1]Data!H23">
@@ -4321,13 +4335,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Data!I23">
@@ -4708,10 +4722,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4760,7 +4774,10 @@
         <f>IF($B$2="","","Поръчка №:")</f>
         <v/>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="str">
+        <f>IF(Data!$C$2="","",Data!$C$2)</f>
+        <v/>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="2" t="str">
         <f>IF($E$2="","","Поръчка №:")</f>
@@ -4921,2601 +4938,2945 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="str">
-        <f>IF($B$8="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B8" s="3" t="str">
+      <c r="A8" s="7">
+        <f>Data!I2</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7">
+        <f>Data!I3</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7">
+        <f>Data!I4</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="str">
+        <f>IF($B$11="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B11" s="3" t="str">
         <f>IF(Data!$B$5="","",Data!$B$5)</f>
         <v/>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2" t="str">
-        <f>IF($E$8="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E8" s="3" t="str">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="str">
+        <f>IF($E$11="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E11" s="3" t="str">
         <f>IF(Data!$B$6="","",Data!$B$6)</f>
         <v/>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2" t="str">
-        <f>IF($H$8="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H8" s="3" t="str">
+      <c r="F11" s="3"/>
+      <c r="G11" s="2" t="str">
+        <f>IF($H$11="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H11" s="3" t="str">
         <f>IF(Data!$B$7="","",Data!$B$7)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="str">
-        <f>IF($B$9="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="B9" s="4" t="str">
+    <row r="12" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="str">
+        <f>IF($B$12="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="B12" s="4" t="str">
         <f>IF(Data!$C$5="","",Data!$C$5)</f>
-        <v/>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2" t="str">
-        <f>IF($E$9="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f>IF(Data!$C$6="","",Data!$C$6)</f>
-        <v/>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="2" t="str">
-        <f>IF($H$9="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f>IF(Data!$C$7="","",Data!$C$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="str">
-        <f>IF($B$10="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="B10" s="4" t="str">
-        <f>IF(Data!$D$5="","",Data!$D$5)</f>
-        <v/>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="2" t="str">
-        <f>IF($E$10="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f>IF(Data!$D$6="","",Data!$D$6)</f>
-        <v/>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="2" t="str">
-        <f>IF($H$10="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f>IF(Data!$D$7="","",Data!$D$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
-        <f>IF($B$11="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B11" s="6" t="str">
-        <f>IF(Data!$F$5="","",Data!$F$5)</f>
-        <v/>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2" t="str">
-        <f>IF($E$11="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f>IF(Data!$F$6="","",Data!$F$6)</f>
-        <v/>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="2" t="str">
-        <f>IF($H$11="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H11" s="6" t="str">
-        <f>IF(Data!$F$7="","",Data!$F$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
-        <f>IF($B$12="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="B12" s="6" t="str">
-        <f>IF(Data!$G$5="","",Data!$G$5)</f>
         <v/>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="2" t="str">
-        <f>IF($E$12="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="E12" s="6" t="str">
-        <f>IF(Data!$G$6="","",Data!$G$6)</f>
+        <f>IF($E$12="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f>IF(Data!$C$6="","",Data!$C$6)</f>
         <v/>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="2" t="str">
-        <f>IF($H$12="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="H12" s="6" t="str">
-        <f>IF(Data!$G$7="","",Data!$G$7)</f>
+        <f>IF($H$12="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f>IF(Data!$C$7="","",Data!$C$7)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF($B$13="","","Брой:")</f>
+        <f>IF($B$13="","","Модел №:")</f>
         <v/>
       </c>
       <c r="B13" s="4" t="str">
-        <f>IF(Data!$H$5="","",Data!$H$5)</f>
+        <f>IF(Data!$D$5="","",Data!$D$5)</f>
         <v/>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="2" t="str">
-        <f>IF($E$13="","","Брой:")</f>
+        <f>IF($E$13="","","Модел №:")</f>
         <v/>
       </c>
       <c r="E13" s="4" t="str">
-        <f>IF(Data!$H$6="","",Data!$H$6)</f>
+        <f>IF(Data!$D$6="","",Data!$D$6)</f>
         <v/>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="2" t="str">
-        <f>IF($H$13="","","Брой:")</f>
+        <f>IF($H$13="","","Модел №:")</f>
         <v/>
       </c>
       <c r="H13" s="4" t="str">
-        <f>IF(Data!$H$7="","",Data!$H$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF(Data!$D$7="","",Data!$D$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
-        <f>IF($B$14="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B14" s="5" t="str">
-        <f>IF($B$9="","",SUMIF(Data!$C:$C,$B$9,Data!$H:$H))</f>
+        <f>IF($B$14="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f>IF(Data!$F$5="","",Data!$F$5)</f>
         <v/>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="str">
-        <f>IF($E$14="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f>IF($E$9="","",SUMIF(Data!$C:$C,$E$9,Data!$H:$H))</f>
+        <f>IF($E$14="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f>IF(Data!$F$6="","",Data!$F$6)</f>
         <v/>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="2" t="str">
-        <f>IF($H$14="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f>IF($H$9="","",SUMIF(Data!$C:$C,$H$9,Data!$H:$H))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF($H$14="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f>IF(Data!$F$7="","",Data!$F$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
-        <f>IF($B$15="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B15" s="3" t="str">
-        <f>IF(Data!$B$8="","",Data!$B$8)</f>
-        <v/>
-      </c>
-      <c r="C15" s="3"/>
+        <f>IF($B$15="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f>IF(Data!$G$5="","",Data!$G$5)</f>
+        <v/>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="2" t="str">
-        <f>IF($E$15="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E15" s="3" t="str">
-        <f>IF(Data!$B$9="","",Data!$B$9)</f>
-        <v/>
-      </c>
-      <c r="F15" s="3"/>
+        <f>IF($E$15="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f>IF(Data!$G$6="","",Data!$G$6)</f>
+        <v/>
+      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="2" t="str">
-        <f>IF($H$15="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f>IF(Data!$B$10="","",Data!$B$10)</f>
+        <f>IF($H$15="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f>IF(Data!$G$7="","",Data!$G$7)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF($B$16="","","Поръчка №:")</f>
+        <f>IF($B$16="","","Брой:")</f>
         <v/>
       </c>
       <c r="B16" s="4" t="str">
-        <f>IF(Data!$C$8="","",Data!$C$8)</f>
+        <f>IF(Data!$H$5="","",Data!$H$5)</f>
         <v/>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="2" t="str">
-        <f>IF($E$16="","","Поръчка №:")</f>
+        <f>IF($E$16="","","Брой:")</f>
         <v/>
       </c>
       <c r="E16" s="4" t="str">
-        <f>IF(Data!$C$9="","",Data!$C$9)</f>
+        <f>IF(Data!$H$6="","",Data!$H$6)</f>
         <v/>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="2" t="str">
-        <f>IF($H$16="","","Поръчка №:")</f>
+        <f>IF($H$16="","","Брой:")</f>
         <v/>
       </c>
       <c r="H16" s="4" t="str">
-        <f>IF(Data!$C$10="","",Data!$C$10)</f>
+        <f>IF(Data!$H$7="","",Data!$H$7)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF($B$17="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f>IF(Data!$D$8="","",Data!$D$8)</f>
+        <f>IF($B$17="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f>IF($B$12="","",SUMIF(Data!$C:$C,$B$12,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="2" t="str">
-        <f>IF($E$17="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f>IF(Data!$D$9="","",Data!$D$9)</f>
+        <f>IF($E$17="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f>IF($E$12="","",SUMIF(Data!$C:$C,$E$12,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="2" t="str">
-        <f>IF($H$17="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="H17" s="4" t="str">
-        <f>IF(Data!$D$10="","",Data!$D$10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="str">
-        <f>IF($B$18="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B18" s="6" t="str">
-        <f>IF(Data!$F$8="","",Data!$F$8)</f>
-        <v/>
-      </c>
+        <f>IF($H$17="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>IF($H$12="","",SUMIF(Data!$C:$C,$H$12,Data!$H:$H))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <f>Data!I5</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="2" t="str">
-        <f>IF($E$18="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E18" s="6" t="str">
-        <f>IF(Data!$F$9="","",Data!$F$9)</f>
-        <v/>
-      </c>
+      <c r="D18" s="7">
+        <f>Data!I6</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="2" t="str">
-        <f>IF($H$18="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H18" s="6" t="str">
-        <f>IF(Data!$F$10="","",Data!$F$10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="str">
-        <f>IF($B$19="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="B19" s="6" t="str">
-        <f>IF(Data!$G$8="","",Data!$G$8)</f>
-        <v/>
-      </c>
+      <c r="G18" s="7">
+        <f>Data!I7</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="2" t="str">
-        <f>IF($E$5="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="E19" s="6" t="str">
-        <f>IF(Data!$G$9="","",Data!$G$9)</f>
-        <v/>
-      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="2" t="str">
-        <f>IF($H$19="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="H19" s="6" t="str">
-        <f>IF(Data!$G$10="","",Data!$G$10)</f>
-        <v/>
-      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="str">
-        <f>IF($B$20="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="B20" s="4" t="str">
-        <f>IF(Data!$H$8="","",Data!$H$8)</f>
-        <v/>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="2" t="str">
-        <f>IF($E$20="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f>IF(Data!$H$9="","",Data!$H$9)</f>
-        <v/>
-      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="2" t="str">
-        <f>IF($H$20="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="H20" s="4" t="str">
-        <f>IF(Data!$H$10="","",Data!$H$10)</f>
-        <v/>
-      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF($B$21="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B21" s="5" t="str">
-        <f>IF($B$16="","",SUMIF(Data!$C:$C,$B$16,Data!$H:$H))</f>
-        <v/>
-      </c>
-      <c r="C21" s="5"/>
+        <f>IF($B$21="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>IF(Data!$B$8="","",Data!$B$8)</f>
+        <v/>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="2" t="str">
-        <f>IF($E$21="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E21" s="5" t="str">
-        <f>IF($E$16="","",SUMIF(Data!$C:$C,$E$16,Data!$H:$H))</f>
-        <v/>
-      </c>
-      <c r="F21" s="5"/>
+        <f>IF($E$21="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f>IF(Data!$B$9="","",Data!$B$9)</f>
+        <v/>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="2" t="str">
-        <f>IF($H$21="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H21" s="5" t="str">
-        <f>IF($H$16="","",SUMIF(Data!$C:$C,$H$16,Data!$H:$H))</f>
+        <f>IF($H$21="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f>IF(Data!$B$10="","",Data!$B$10)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF($B$22="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B22" s="3" t="str">
-        <f>IF(Data!$B$11="","",Data!$B$11)</f>
-        <v/>
-      </c>
-      <c r="C22" s="3"/>
+        <f>IF($B$22="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>IF(Data!$C$8="","",Data!$C$8)</f>
+        <v/>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="2" t="str">
-        <f>IF($E$22="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E22" s="3" t="str">
-        <f>IF(Data!$B$12="","",Data!$B$12)</f>
-        <v/>
-      </c>
-      <c r="F22" s="3"/>
+        <f>IF($E$22="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>IF(Data!$C$9="","",Data!$C$9)</f>
+        <v/>
+      </c>
+      <c r="F22" s="5"/>
       <c r="G22" s="2" t="str">
-        <f>IF($H$22="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H22" s="3" t="str">
-        <f>IF(Data!$B$13="","",Data!$B$13)</f>
+        <f>IF($H$22="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f>IF(Data!$C$10="","",Data!$C$10)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF($B$23="","","Поръчка №:")</f>
+        <f>IF($B$23="","","Модел №:")</f>
         <v/>
       </c>
       <c r="B23" s="4" t="str">
-        <f>IF(Data!$C$11="","",Data!$C$11)</f>
+        <f>IF(Data!$D$8="","",Data!$D$8)</f>
         <v/>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="2" t="str">
-        <f>IF($E$23="","","Поръчка №:")</f>
+        <f>IF($E$23="","","Модел №:")</f>
         <v/>
       </c>
       <c r="E23" s="4" t="str">
-        <f>IF(Data!$C$12="","",Data!$C$12)</f>
+        <f>IF(Data!$D$9="","",Data!$D$9)</f>
         <v/>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="2" t="str">
-        <f>IF($H$23="","","Поръчка №:")</f>
+        <f>IF($H$23="","","Модел №:")</f>
         <v/>
       </c>
       <c r="H23" s="4" t="str">
-        <f>IF(Data!$C$13="","",Data!$C$13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF(Data!$D$10="","",Data!$D$10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
-        <f>IF($B$24="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="B24" s="4" t="str">
-        <f>IF(Data!$D$11="","",Data!$D$11)</f>
+        <f>IF($B$24="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f>IF(Data!$F$8="","",Data!$F$8)</f>
         <v/>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="2" t="str">
-        <f>IF($E$24="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="E24" s="4" t="str">
-        <f>IF(Data!$D$12="","",Data!$D$12)</f>
+        <f>IF($E$24="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f>IF(Data!$F$9="","",Data!$F$9)</f>
         <v/>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="str">
-        <f>IF($H$24="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="H24" s="4" t="str">
-        <f>IF(Data!$D$13="","",Data!$D$13)</f>
+        <f>IF($H$24="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="H24" s="6" t="str">
+        <f>IF(Data!$F$10="","",Data!$F$10)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
-        <f>IF($B$25="","","Височина:")</f>
+        <f>IF($B$25="","","Ширина:")</f>
         <v/>
       </c>
       <c r="B25" s="6" t="str">
-        <f>IF(Data!$F$11="","",Data!$F$11)</f>
+        <f>IF(Data!$G$8="","",Data!$G$8)</f>
         <v/>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2" t="str">
-        <f>IF($E$4="","","Височина:")</f>
+        <f>IF($E$5="","","Ширина:")</f>
         <v/>
       </c>
       <c r="E25" s="6" t="str">
-        <f>IF(Data!$F$12="","",Data!$F$12)</f>
+        <f>IF(Data!$G$9="","",Data!$G$9)</f>
         <v/>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="2" t="str">
-        <f>IF($H$25="","","Височина:")</f>
+        <f>IF($H$25="","","Ширина:")</f>
         <v/>
       </c>
       <c r="H25" s="6" t="str">
-        <f>IF(Data!$F$13="","",Data!$F$13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(Data!$G$10="","",Data!$G$10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF($B$26="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="B26" s="6" t="str">
-        <f>IF(Data!$G$11="","",Data!$G$11)</f>
+        <f>IF($B$26="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>IF(Data!$H$8="","",Data!$H$8)</f>
         <v/>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="str">
-        <f>IF($E$5="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="E26" s="6" t="str">
-        <f>IF(Data!$G$12="","",Data!$G$12)</f>
+        <f>IF($E$26="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="E26" s="4" t="str">
+        <f>IF(Data!$H$9="","",Data!$H$9)</f>
         <v/>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="2" t="str">
-        <f>IF($H$26="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="H26" s="6" t="str">
-        <f>IF(Data!$G$13="","",Data!$G$13)</f>
+        <f>IF($H$26="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f>IF(Data!$H$10="","",Data!$H$10)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF($B$27="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="B27" s="4" t="str">
-        <f>IF(Data!$H$11="","",Data!$H$11)</f>
+        <f>IF($B$27="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>IF($B$22="","",SUMIF(Data!$C:$C,$B$22,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="2" t="str">
-        <f>IF($E$27="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="E27" s="4" t="str">
-        <f>IF(Data!$H$12="","",Data!$H$12)</f>
+        <f>IF($E$27="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f>IF($E$22="","",SUMIF(Data!$C:$C,$E$22,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="2" t="str">
-        <f>IF($H$27="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="H27" s="4" t="str">
-        <f>IF(Data!$H$13="","",Data!$H$13)</f>
+        <f>IF($H$27="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f>IF($H$22="","",SUMIF(Data!$C:$C,$H$22,Data!$H:$H))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="str">
-        <f>IF($B$28="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B28" s="5" t="str">
-        <f>IF($B$23="","",SUMIF(Data!$C:$C,$B$23,Data!$H:$H))</f>
-        <v/>
-      </c>
+      <c r="A28" s="7">
+        <f>Data!I8</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="7"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="2" t="str">
-        <f>IF($E$28="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E28" s="5" t="str">
-        <f>IF($E$23="","",SUMIF(Data!$C:$C,$E$23,Data!$H:$H))</f>
-        <v/>
-      </c>
+      <c r="D28" s="7">
+        <f>Data!I9</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="2" t="str">
-        <f>IF($H$28="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H28" s="5" t="str">
-        <f>IF($H$23="","",SUMIF(Data!$C:$C,$H$23,Data!$H:$H))</f>
-        <v/>
-      </c>
+      <c r="G28" s="7">
+        <f>Data!I10</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="str">
-        <f>IF($B$29="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B29" s="3" t="str">
-        <f>IF(Data!$B$14="","",Data!$B$14)</f>
-        <v/>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2" t="str">
-        <f>IF($E$29="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E29" s="3" t="str">
-        <f>IF(Data!$B$15="","",Data!$B$15)</f>
-        <v/>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2" t="str">
-        <f>IF($H$29="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H29" s="3" t="str">
-        <f>IF(Data!$B$16="","",Data!$B$16)</f>
-        <v/>
-      </c>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="str">
-        <f>IF($B$30="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="B30" s="4" t="str">
-        <f>IF(Data!$C$14="","",Data!$C$14)</f>
-        <v/>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="2" t="str">
-        <f>IF($E$30="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="E30" s="4" t="str">
-        <f>IF(Data!$C$15="","",Data!$C$15)</f>
-        <v/>
-      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="2" t="str">
-        <f>IF($H$30="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="H30" s="4" t="str">
-        <f>IF(Data!$C$16="","",Data!$C$16)</f>
-        <v/>
-      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF($B$31="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="B31" s="4" t="str">
-        <f>IF(Data!$D$14="","",Data!$D$14)</f>
-        <v/>
-      </c>
-      <c r="C31" s="5"/>
+        <f>IF($B$31="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f>IF(Data!$B$11="","",Data!$B$11)</f>
+        <v/>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="2" t="str">
-        <f>IF($E$31="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="E31" s="4" t="str">
-        <f>IF(Data!$D$15="","",Data!$D$15)</f>
-        <v/>
-      </c>
-      <c r="F31" s="5"/>
+        <f>IF($E$31="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f>IF(Data!$B$12="","",Data!$B$12)</f>
+        <v/>
+      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="2" t="str">
-        <f>IF($H$31="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="H31" s="4" t="str">
-        <f>IF(Data!$D$16="","",Data!$D$16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF($H$31="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f>IF(Data!$B$13="","",Data!$B$13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF($B$32="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B32" s="6" t="str">
-        <f>IF(Data!$F$14="","",Data!$F$14)</f>
+        <f>IF($B$32="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="B32" s="4" t="str">
+        <f>IF(Data!$C$11="","",Data!$C$11)</f>
         <v/>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="2" t="str">
-        <f>IF($E$32="","","Широчина:")</f>
-        <v/>
-      </c>
-      <c r="E32" s="6" t="str">
-        <f>IF(Data!$F$15="","",Data!$F$15)</f>
+        <f>IF($E$32="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f>IF(Data!$C$12="","",Data!$C$12)</f>
         <v/>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="2" t="str">
-        <f>IF($H$32="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H32" s="6" t="str">
-        <f>IF(Data!$F$16="","",Data!$F$16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF($H$32="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="H32" s="4" t="str">
+        <f>IF(Data!$C$13="","",Data!$C$13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF($B$33="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="B33" s="6" t="str">
-        <f>IF(Data!$G$14="","",Data!$G$14)</f>
+        <f>IF($B$33="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>IF(Data!$D$11="","",Data!$D$11)</f>
         <v/>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="2" t="str">
-        <f>IF($E$33="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E33" s="6" t="str">
-        <f>IF(Data!$G$15="","",Data!$G$15)</f>
+        <f>IF($E$33="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f>IF(Data!$D$12="","",Data!$D$12)</f>
         <v/>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="2" t="str">
-        <f>IF($H$33="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="H33" s="6" t="str">
-        <f>IF(Data!$G$16="","",Data!$G$16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF($H$33="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="H33" s="4" t="str">
+        <f>IF(Data!$D$13="","",Data!$D$13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
-        <f>IF($B$34="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="B34" s="4" t="str">
-        <f>IF(Data!$H$14="","",Data!$H$14)</f>
+        <f>IF($B$34="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="B34" s="6" t="str">
+        <f>IF(Data!$F$11="","",Data!$F$11)</f>
         <v/>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="2" t="str">
-        <f>IF($E$34="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="E34" s="4" t="str">
-        <f>IF(Data!$H$15="","",Data!$H$15)</f>
+        <f>IF($E$4="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="E34" s="6" t="str">
+        <f>IF(Data!$F$12="","",Data!$F$12)</f>
         <v/>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="2" t="str">
-        <f>IF($H$34="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="H34" s="4" t="str">
-        <f>IF(Data!$H$16="","",Data!$H$16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF($H$34="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="H34" s="6" t="str">
+        <f>IF(Data!$F$13="","",Data!$F$13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
-        <f>IF($B$35="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B35" s="5" t="str">
-        <f>IF($B$30="","",SUMIF(Data!$C:$C,$B$30,Data!$H:$H))</f>
+        <f>IF($B$35="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B35" s="6" t="str">
+        <f>IF(Data!$G$11="","",Data!$G$11)</f>
         <v/>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="str">
-        <f>IF($E$35="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E35" s="5" t="str">
-        <f>IF($E$30="","",SUMIF(Data!$C:$C,$E$30,Data!$H:$H))</f>
+        <f>IF($E$5="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f>IF(Data!$G$12="","",Data!$G$12)</f>
         <v/>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="2" t="str">
-        <f>IF($H$35="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f>IF($H$30="","",SUMIF(Data!$C:$C,$H$30,Data!$H:$H))</f>
+        <f>IF($H$35="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H35" s="6" t="str">
+        <f>IF(Data!$G$13="","",Data!$G$13)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF($B$36="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B36" s="3" t="str">
-        <f>IF(Data!$B$17="","",Data!$B$17)</f>
-        <v/>
-      </c>
-      <c r="C36" s="3"/>
+        <f>IF($B$36="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f>IF(Data!$H$11="","",Data!$H$11)</f>
+        <v/>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="2" t="str">
-        <f>IF($E$36="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E36" s="3" t="str">
-        <f>IF(Data!$B$18="","",Data!$B$18)</f>
-        <v/>
-      </c>
-      <c r="F36" s="3"/>
+        <f>IF($E$36="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f>IF(Data!$H$12="","",Data!$H$12)</f>
+        <v/>
+      </c>
+      <c r="F36" s="5"/>
       <c r="G36" s="2" t="str">
-        <f>IF($H$36="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H36" s="3" t="str">
-        <f>IF(Data!$B$19="","",Data!$B$19)</f>
+        <f>IF($H$36="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="H36" s="4" t="str">
+        <f>IF(Data!$H$13="","",Data!$H$13)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF($B$37="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="B37" s="4" t="str">
-        <f>IF(Data!$C$17="","",Data!$C$17)</f>
+        <f>IF($B$37="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B37" s="5" t="str">
+        <f>IF($B$32="","",SUMIF(Data!$C:$C,$B$32,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="2" t="str">
-        <f>IF($E$37="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="E37" s="4" t="str">
-        <f>IF(Data!$C$18="","",Data!$C$18)</f>
+        <f>IF($E$37="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E37" s="5" t="str">
+        <f>IF($E$32="","",SUMIF(Data!$C:$C,$E$32,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="2" t="str">
-        <f>IF($H$37="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="H37" s="4" t="str">
-        <f>IF(Data!$C$19="","",Data!$C$19)</f>
+        <f>IF($H$37="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>IF($H$32="","",SUMIF(Data!$C:$C,$H$32,Data!$H:$H))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="str">
-        <f>IF($B$38="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="B38" s="4" t="str">
-        <f>IF(Data!$D$17="","",Data!$D$17)</f>
-        <v/>
-      </c>
+      <c r="A38" s="7">
+        <f>Data!I11</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="7"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="2" t="str">
-        <f>IF($E$38="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="E38" s="4" t="str">
-        <f>IF(Data!$D$18="","",Data!$D$18)</f>
-        <v/>
-      </c>
+      <c r="D38" s="7">
+        <f>Data!I12</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="7"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="2" t="str">
-        <f>IF($H$38="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="H38" s="4" t="str">
-        <f>IF(Data!$D$19="","",Data!$D$19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="str">
-        <f>IF($B$39="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B39" s="6" t="str">
-        <f>IF(Data!$F$17="","",Data!$F$17)</f>
-        <v/>
-      </c>
+      <c r="G38" s="7">
+        <f>Data!I13</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="2" t="str">
-        <f>IF($E$39="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E39" s="6" t="str">
-        <f>IF(Data!$F$18="","",Data!$F$18)</f>
-        <v/>
-      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="2" t="str">
-        <f>IF($H$39="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H39" s="6" t="str">
-        <f>IF(Data!$F$19="","",Data!$F$19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="str">
-        <f>IF($B$40="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="B40" s="6" t="str">
-        <f>IF(Data!$G$17="","",Data!$G$17)</f>
-        <v/>
-      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="2" t="str">
-        <f>IF($E$40="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="E40" s="6" t="str">
-        <f>IF(Data!$G$18="","",Data!$G$18)</f>
-        <v/>
-      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="2" t="str">
-        <f>IF($H$40="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="H40" s="6" t="str">
-        <f>IF(Data!$G$19="","",Data!$G$19)</f>
-        <v/>
-      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IF($B$41="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="B41" s="4" t="str">
-        <f>IF(Data!$H$17="","",Data!$H$17)</f>
-        <v/>
-      </c>
-      <c r="C41" s="5"/>
+        <f>IF($B$41="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f>IF(Data!$B$14="","",Data!$B$14)</f>
+        <v/>
+      </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="2" t="str">
-        <f>IF($E$41="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="E41" s="4" t="str">
-        <f>IF(Data!$H$18="","",Data!$H$18)</f>
-        <v/>
-      </c>
-      <c r="F41" s="5"/>
+        <f>IF($E$41="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E41" s="3" t="str">
+        <f>IF(Data!$B$15="","",Data!$B$15)</f>
+        <v/>
+      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="2" t="str">
-        <f>IF($H$41="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="H41" s="4" t="str">
-        <f>IF(Data!$H$19="","",Data!$H$19)</f>
+        <f>IF($H$41="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H41" s="3" t="str">
+        <f>IF(Data!$B$16="","",Data!$B$16)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <f>IF($B$42="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B42" s="5" t="str">
-        <f>IF($B$37="","",SUMIF(Data!$C:$C,$B$37,Data!$H:$H))</f>
+        <f>IF($B$42="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f>IF(Data!$C$14="","",Data!$C$14)</f>
         <v/>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="2" t="str">
-        <f>IF($E$42="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E42" s="5" t="str">
-        <f>IF($E$37="","",SUMIF(Data!$C:$C,$E$37,Data!$H:$H))</f>
+        <f>IF($E$42="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f>IF(Data!$C$15="","",Data!$C$15)</f>
         <v/>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="2" t="str">
-        <f>IF($H$42="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f>IF($H$37="","",SUMIF(Data!$C:$C,$H$37,Data!$H:$H))</f>
+        <f>IF($H$42="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="H42" s="4" t="str">
+        <f>IF(Data!$C$16="","",Data!$C$16)</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF($B$43="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B43" s="3" t="str">
-        <f>IF(Data!$B$20="","",Data!$B$20)</f>
-        <v/>
-      </c>
-      <c r="C43" s="3"/>
+        <f>IF($B$43="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f>IF(Data!$D$14="","",Data!$D$14)</f>
+        <v/>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="2" t="str">
-        <f>IF($E$43="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E43" s="3" t="str">
-        <f>IF(Data!$B$21="","",Data!$B$21)</f>
-        <v/>
-      </c>
-      <c r="F43" s="3"/>
+        <f>IF($E$43="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="E43" s="4" t="str">
+        <f>IF(Data!$D$15="","",Data!$D$15)</f>
+        <v/>
+      </c>
+      <c r="F43" s="5"/>
       <c r="G43" s="2" t="str">
-        <f>IF($H$43="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H43" s="3" t="str">
-        <f>IF(Data!$B$22="","",Data!$B$22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF($H$43="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="H43" s="4" t="str">
+        <f>IF(Data!$D$16="","",Data!$D$16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
-        <f>IF($B$44="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="B44" s="4" t="str">
-        <f>IF(Data!$C$20="","",Data!$C$20)</f>
+        <f>IF($B$44="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="B44" s="6" t="str">
+        <f>IF(Data!$F$14="","",Data!$F$14)</f>
         <v/>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="2" t="str">
-        <f>IF($E$44="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="E44" s="4" t="str">
-        <f>IF(Data!$C$21="","",Data!$C$21)</f>
+        <f>IF($E$44="","","Широчина:")</f>
+        <v/>
+      </c>
+      <c r="E44" s="6" t="str">
+        <f>IF(Data!$F$15="","",Data!$F$15)</f>
         <v/>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="2" t="str">
-        <f>IF($H$44="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="H44" s="4" t="str">
-        <f>IF(Data!$C$22="","",Data!$C$22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF($H$44="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="H44" s="6" t="str">
+        <f>IF(Data!$F$16="","",Data!$F$16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
-        <f>IF($B$45="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="B45" s="4" t="str">
-        <f>IF(Data!$D$20="","",Data!$D$20)</f>
+        <f>IF($B$45="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B45" s="6" t="str">
+        <f>IF(Data!$G$14="","",Data!$G$14)</f>
         <v/>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="2" t="str">
-        <f>IF($E$45="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="E45" s="4" t="str">
-        <f>IF(Data!$D$21="","",Data!$D$21)</f>
+        <f>IF($E$45="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="E45" s="6" t="str">
+        <f>IF(Data!$G$15="","",Data!$G$15)</f>
         <v/>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="2" t="str">
-        <f>IF($H$45="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="H45" s="4" t="str">
-        <f>IF(Data!$D$22="","",Data!$D$22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF($H$45="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f>IF(Data!$G$16="","",Data!$G$16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <f>IF($B$46="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B46" s="6" t="str">
-        <f>IF(Data!$F$20="","",Data!$F$20)</f>
+        <f>IF($B$46="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>IF(Data!$H$14="","",Data!$H$14)</f>
         <v/>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="2" t="str">
-        <f>IF($E$46="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E46" s="6" t="str">
-        <f>IF(Data!$F$21="","",Data!$F$21)</f>
+        <f>IF($E$46="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f>IF(Data!$H$15="","",Data!$H$15)</f>
         <v/>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="2" t="str">
-        <f>IF($H$46="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H46" s="6" t="str">
-        <f>IF(Data!$F$22="","",Data!$F$22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF($H$46="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="H46" s="4" t="str">
+        <f>IF(Data!$H$16="","",Data!$H$16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <f>IF($B$47="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="B47" s="6" t="str">
-        <f>IF(Data!$G$20="","",Data!$G$20)</f>
+        <f>IF($B$47="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B47" s="5" t="str">
+        <f>IF($B$42="","",SUMIF(Data!$C:$C,$B$42,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="2" t="str">
-        <f>IF($E$47="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="E47" s="6" t="str">
-        <f>IF(Data!$G$21="","",Data!$G$21)</f>
+        <f>IF($E$47="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E47" s="5" t="str">
+        <f>IF($E$42="","",SUMIF(Data!$C:$C,$E$42,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="2" t="str">
-        <f>IF($H$47="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="H47" s="6" t="str">
-        <f>IF(Data!$G$22="","",Data!$G$22)</f>
+        <f>IF($H$47="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>IF($H$42="","",SUMIF(Data!$C:$C,$H$42,Data!$H:$H))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="str">
-        <f>IF($B$48="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="B48" s="4" t="str">
-        <f>IF(Data!$H$20="","",Data!$H$20)</f>
-        <v/>
-      </c>
+      <c r="A48" s="7">
+        <f>Data!I14</f>
+        <v>0</v>
+      </c>
+      <c r="B48" s="7"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="2" t="str">
-        <f>IF($E$48="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="E48" s="4" t="str">
-        <f>IF(Data!$H$20="","",Data!$H$21)</f>
-        <v/>
-      </c>
+      <c r="D48" s="7">
+        <f>Data!I15</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="7"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="2" t="str">
-        <f>IF($H$48="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="H48" s="4" t="str">
-        <f>IF(Data!$H$22="","",Data!$H$22)</f>
-        <v/>
-      </c>
+      <c r="G48" s="7">
+        <f>Data!I16</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="str">
-        <f>IF($B$49="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B49" s="5" t="str">
-        <f>IF($B$44="","",SUMIF(Data!$C:$C,$B$44,Data!$H:$H))</f>
-        <v/>
-      </c>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="2" t="str">
-        <f>IF($E$49="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E49" s="5" t="str">
-        <f>IF($E$44="","",SUMIF(Data!$C:$C,$E$44,Data!$H:$H))</f>
-        <v/>
-      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="2" t="str">
-        <f>IF($H$49="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H49" s="5" t="str">
-        <f>IF($H$44="","",SUMIF(Data!$C:$C,$H$44,Data!$H:$H))</f>
-        <v/>
-      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="str">
-        <f>IF($B$50="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B50" s="3" t="str">
-        <f>IF(Data!$B$23="","",Data!$B$23)</f>
-        <v/>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="2" t="str">
-        <f>IF($E$50="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E50" s="3" t="str">
-        <f>IF(Data!$B$24="","",Data!$B$24)</f>
-        <v/>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="2" t="str">
-        <f>IF($H$50="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H50" s="3" t="str">
-        <f>IF(Data!$B$25="","",Data!$B$25)</f>
-        <v/>
-      </c>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <f>IF($B$51="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="B51" s="4" t="str">
-        <f>IF(Data!$C$23="","",Data!$C$23)</f>
-        <v/>
-      </c>
-      <c r="C51" s="5"/>
+        <f>IF($B$51="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B51" s="3" t="str">
+        <f>IF(Data!$B$17="","",Data!$B$17)</f>
+        <v/>
+      </c>
+      <c r="C51" s="3"/>
       <c r="D51" s="2" t="str">
-        <f>IF($E$51="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="E51" s="4" t="str">
-        <f>IF(Data!$C$24="","",Data!$C$24)</f>
-        <v/>
-      </c>
-      <c r="F51" s="5"/>
+        <f>IF($E$51="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E51" s="3" t="str">
+        <f>IF(Data!$B$18="","",Data!$B$18)</f>
+        <v/>
+      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="2" t="str">
-        <f>IF($H$51="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="H51" s="4" t="str">
-        <f>IF(Data!$C$25="","",Data!$C$25)</f>
+        <f>IF($H$51="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H51" s="3" t="str">
+        <f>IF(Data!$B$19="","",Data!$B$19)</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
-        <f>IF($B$52="","","Модел №:")</f>
+        <f>IF($B$52="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="B52" s="4" t="str">
-        <f>IF(Data!$D$23="","",Data!$D$23)</f>
+        <f>IF(Data!$C$17="","",Data!$C$17)</f>
         <v/>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="2" t="str">
-        <f>IF($E$52="","","Модел №:")</f>
+        <f>IF($E$52="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="E52" s="4" t="str">
-        <f>IF(Data!$D$24="","",Data!$D$24)</f>
+        <f>IF(Data!$C$18="","",Data!$C$18)</f>
         <v/>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="2" t="str">
-        <f>IF($H$52="","","Модел №:")</f>
+        <f>IF($H$52="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="H52" s="4" t="str">
-        <f>IF(Data!$D$25="","",Data!$D$25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(Data!$C$19="","",Data!$C$19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <f>IF($B$53="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B53" s="6" t="str">
-        <f>IF(Data!$F$23="","",Data!$F$23)</f>
+        <f>IF($B$53="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f>IF(Data!$D$17="","",Data!$D$17)</f>
         <v/>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="2" t="str">
-        <f>IF($E$53="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E53" s="6" t="str">
-        <f>IF(Data!$F$24="","",Data!$F$24)</f>
+        <f>IF($E$53="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f>IF(Data!$D$18="","",Data!$D$18)</f>
         <v/>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="2" t="str">
-        <f>IF($H$53="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H53" s="6" t="str">
-        <f>IF(Data!$F$25="","",Data!$F$25)</f>
+        <f>IF($H$53="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="H53" s="4" t="str">
+        <f>IF(Data!$D$19="","",Data!$D$19)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
-        <f>IF($B$54="","","Ширина:")</f>
+        <f>IF($B$54="","","Височина:")</f>
         <v/>
       </c>
       <c r="B54" s="6" t="str">
-        <f>IF(Data!$G$23="","",Data!$G$23)</f>
+        <f>IF(Data!$F$17="","",Data!$F$17)</f>
         <v/>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="2" t="str">
-        <f>IF($E$54="","","Ширина:")</f>
+        <f>IF($E$54="","","Височина:")</f>
         <v/>
       </c>
       <c r="E54" s="6" t="str">
-        <f>IF(Data!$G$24="","",Data!$G$24)</f>
+        <f>IF(Data!$F$18="","",Data!$F$18)</f>
         <v/>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="2" t="str">
-        <f>IF($H$54="","","Ширина:")</f>
+        <f>IF($H$54="","","Височина:")</f>
         <v/>
       </c>
       <c r="H54" s="6" t="str">
-        <f>IF(Data!$G$25="","",Data!$G$25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF(Data!$F$19="","",Data!$F$19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
-        <f>IF($B$55="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="B55" s="4" t="str">
-        <f>IF(Data!$H$23="","",Data!$H$23)</f>
+        <f>IF($B$55="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B55" s="6" t="str">
+        <f>IF(Data!$G$17="","",Data!$G$17)</f>
         <v/>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="2" t="str">
-        <f>IF($E$55="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="E55" s="4" t="str">
-        <f>IF(Data!$H$24="","",Data!$H$24)</f>
+        <f>IF($E$55="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="E55" s="6" t="str">
+        <f>IF(Data!$G$18="","",Data!$G$18)</f>
         <v/>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="2" t="str">
-        <f>IF($H$55="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="H55" s="4" t="str">
-        <f>IF(Data!$H$25="","",Data!$H$25)</f>
+        <f>IF($H$55="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H55" s="6" t="str">
+        <f>IF(Data!$G$19="","",Data!$G$19)</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <f>IF($B$56="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B56" s="5" t="str">
-        <f>IF($B$51="","",SUMIF(Data!$C:$C,$B$51,Data!$H:$H))</f>
+        <f>IF($B$56="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f>IF(Data!$H$17="","",Data!$H$17)</f>
         <v/>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="2" t="str">
-        <f>IF($E$56="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E56" s="5" t="str">
-        <f>IF($E$51="","",SUMIF(Data!$C:$C,$E$51,Data!$H:$H))</f>
+        <f>IF($E$56="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f>IF(Data!$H$18="","",Data!$H$18)</f>
         <v/>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="2" t="str">
-        <f>IF($H$56="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H56" s="5" t="str">
-        <f>IF($H$51="","",SUMIF(Data!$C:$C,$H$51,Data!$H:$H))</f>
+        <f>IF($H$56="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="H56" s="4" t="str">
+        <f>IF(Data!$H$19="","",Data!$H$19)</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IF($B$57="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B57" s="3" t="str">
-        <f>IF(Data!$B$26="","",Data!$B$26)</f>
-        <v/>
-      </c>
-      <c r="C57" s="3"/>
+        <f>IF($B$57="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B57" s="5" t="str">
+        <f>IF($B$52="","",SUMIF(Data!$C:$C,$B$52,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="C57" s="5"/>
       <c r="D57" s="2" t="str">
-        <f>IF($E$57="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E57" s="3" t="str">
-        <f>IF(Data!$B$27="","",Data!$B$27)</f>
-        <v/>
-      </c>
-      <c r="F57" s="3"/>
+        <f>IF($E$57="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E57" s="5" t="str">
+        <f>IF($E$52="","",SUMIF(Data!$C:$C,$E$52,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="F57" s="5"/>
       <c r="G57" s="2" t="str">
-        <f>IF($H$57="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H57" s="3" t="str">
-        <f>IF(Data!$B$28="","",Data!$B$28)</f>
+        <f>IF($H$57="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>IF($H$52="","",SUMIF(Data!$C:$C,$H$52,Data!$H:$H))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="str">
-        <f>IF($B$58="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="B58" s="4" t="str">
-        <f>IF(Data!$C$26="","",Data!$C$26)</f>
-        <v/>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="2" t="str">
-        <f>IF($E$58="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="E58" s="4" t="str">
-        <f>IF(Data!$C$27="","",Data!$C$27)</f>
-        <v/>
-      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="2" t="str">
-        <f>IF($H$58="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="H58" s="4" t="str">
-        <f>IF(Data!$C$28="","",Data!$C$28)</f>
-        <v/>
-      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="str">
-        <f>IF($B$59="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="B59" s="4" t="str">
-        <f>IF(Data!$D$26="","",Data!$D$26)</f>
-        <v/>
-      </c>
+      <c r="A59" s="7">
+        <f>Data!I17</f>
+        <v>0</v>
+      </c>
+      <c r="B59" s="7"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="2" t="str">
-        <f>IF($E$59="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="E59" s="4" t="str">
-        <f>IF(Data!$D$27="","",Data!$D$27)</f>
-        <v/>
-      </c>
+      <c r="D59" s="7">
+        <f>Data!I18</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="7"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="2" t="str">
-        <f>IF($H$59="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="H59" s="4" t="str">
-        <f>IF(Data!$D$28="","",Data!$D$28)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="str">
-        <f>IF($B$60="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B60" s="6" t="str">
-        <f>IF(Data!$F$26="","",Data!$F$26)</f>
-        <v/>
-      </c>
+      <c r="G59" s="7">
+        <f>Data!I19</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="2" t="str">
-        <f>IF($E$60="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E60" s="6" t="str">
-        <f>IF(Data!$F$27="","",Data!$F$27)</f>
-        <v/>
-      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="2" t="str">
-        <f>IF($H$60="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H60" s="6" t="str">
-        <f>IF(Data!$F$28="","",Data!$F$28)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="str">
-        <f>IF($B$61="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="B61" s="6" t="str">
-        <f>IF(Data!$G$26="","",Data!$G$26)</f>
-        <v/>
-      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="2" t="str">
-        <f>IF($E$61="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="E61" s="6" t="str">
-        <f>IF(Data!$G$27="","",Data!$G$27)</f>
-        <v/>
-      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="2" t="str">
-        <f>IF($H$61="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="H61" s="6" t="str">
-        <f>IF(Data!$G$28="","",Data!$G$28)</f>
-        <v/>
-      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
-        <f>IF($B$62="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="B62" s="4" t="str">
-        <f>IF(Data!$H$26="","",Data!$H$26)</f>
-        <v/>
-      </c>
-      <c r="C62" s="5"/>
+        <f>IF($B$62="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B62" s="3" t="str">
+        <f>IF(Data!$B$20="","",Data!$B$20)</f>
+        <v/>
+      </c>
+      <c r="C62" s="3"/>
       <c r="D62" s="2" t="str">
-        <f>IF($E$62="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="E62" s="4" t="str">
-        <f>IF(Data!$H$27="","",Data!$H$27)</f>
-        <v/>
-      </c>
-      <c r="F62" s="5"/>
+        <f>IF($E$62="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E62" s="3" t="str">
+        <f>IF(Data!$B$21="","",Data!$B$21)</f>
+        <v/>
+      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="2" t="str">
-        <f>IF($H$62="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="H62" s="4" t="str">
-        <f>IF(Data!$H$28="","",Data!$H$28)</f>
+        <f>IF($H$62="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H62" s="3" t="str">
+        <f>IF(Data!$B$22="","",Data!$B$22)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="str">
-        <f>IF($B$63="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B63" s="5" t="str">
-        <f>IF($B$58="","",SUMIF(Data!$C:$C,$B$58,Data!$H:$H))</f>
+        <f>IF($B$63="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="B63" s="4" t="str">
+        <f>IF(Data!$C$20="","",Data!$C$20)</f>
         <v/>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="2" t="str">
-        <f>IF($E$63="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E63" s="5" t="str">
-        <f>IF($E$58="","",SUMIF(Data!$C:$C,$E$58,Data!$H:$H))</f>
+        <f>IF($E$63="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f>IF(Data!$C$21="","",Data!$C$21)</f>
         <v/>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="2" t="str">
-        <f>IF($H$63="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H63" s="5" t="str">
-        <f>IF($H$58="","",SUMIF(Data!$C:$C,$H$58,Data!$H:$H))</f>
+        <f>IF($H$63="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="H63" s="4" t="str">
+        <f>IF(Data!$C$22="","",Data!$C$22)</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="str">
-        <f>IF($B$64="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B64" s="3" t="str">
-        <f>IF(Data!$B$29="","",Data!$B$29)</f>
-        <v/>
-      </c>
-      <c r="C64" s="3"/>
+        <f>IF($B$64="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="B64" s="4" t="str">
+        <f>IF(Data!$D$20="","",Data!$D$20)</f>
+        <v/>
+      </c>
+      <c r="C64" s="5"/>
       <c r="D64" s="2" t="str">
-        <f>IF($E$64="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E64" s="3" t="str">
-        <f>IF(Data!$B$30="","",Data!$B$30)</f>
-        <v/>
-      </c>
-      <c r="F64" s="3"/>
+        <f>IF($E$64="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f>IF(Data!$D$21="","",Data!$D$21)</f>
+        <v/>
+      </c>
+      <c r="F64" s="5"/>
       <c r="G64" s="2" t="str">
-        <f>IF($H$64="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H64" s="3" t="str">
-        <f>IF(Data!$B$31="","",Data!$B$31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF($H$64="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="H64" s="4" t="str">
+        <f>IF(Data!$D$22="","",Data!$D$22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
-        <f>IF($B$65="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="B65" s="4" t="str">
-        <f>IF(Data!$C$29="","",Data!$C$29)</f>
+        <f>IF($B$65="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="B65" s="6" t="str">
+        <f>IF(Data!$F$20="","",Data!$F$20)</f>
         <v/>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="2" t="str">
-        <f>IF($E$65="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="E65" s="4" t="str">
-        <f>IF(Data!$C$30="","",Data!$C$30)</f>
+        <f>IF($E$65="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="E65" s="6" t="str">
+        <f>IF(Data!$F$21="","",Data!$F$21)</f>
         <v/>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="2" t="str">
-        <f>IF($H$65="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="H65" s="4" t="str">
-        <f>IF(Data!$C$31="","",Data!$C$31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF($H$65="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="H65" s="6" t="str">
+        <f>IF(Data!$F$22="","",Data!$F$22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
-        <f>IF($B$66="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="B66" s="4" t="str">
-        <f>IF(Data!$D$29="","",Data!$D$29)</f>
+        <f>IF($B$66="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B66" s="6" t="str">
+        <f>IF(Data!$G$20="","",Data!$G$20)</f>
         <v/>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="2" t="str">
-        <f>IF($E$66="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="E66" s="4" t="str">
-        <f>IF(Data!$D$30="","",Data!$D$30)</f>
+        <f>IF($E$66="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="E66" s="6" t="str">
+        <f>IF(Data!$G$21="","",Data!$G$21)</f>
         <v/>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="2" t="str">
-        <f>IF($H$66="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="H66" s="4" t="str">
-        <f>IF(Data!$D$31="","",Data!$D$31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF($H$66="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H66" s="6" t="str">
+        <f>IF(Data!$G$22="","",Data!$G$22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF($B$67="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B67" s="6" t="str">
-        <f>IF(Data!$F$29="","",Data!$F$29)</f>
+        <f>IF($B$67="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="B67" s="4" t="str">
+        <f>IF(Data!$H$20="","",Data!$H$20)</f>
         <v/>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="2" t="str">
-        <f>IF($E$67="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E67" s="6" t="str">
-        <f>IF(Data!$F$30="","",Data!$F$30)</f>
+        <f>IF($E$67="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f>IF(Data!$H$20="","",Data!$H$21)</f>
         <v/>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="2" t="str">
-        <f>IF($H$67="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H67" s="6" t="str">
-        <f>IF(Data!$F$31="","",Data!$F$31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF($H$67="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="H67" s="4" t="str">
+        <f>IF(Data!$H$22="","",Data!$H$22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IF($B$68="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="B68" s="6" t="str">
-        <f>IF(Data!$G$29="","",Data!$G$29)</f>
+        <f>IF($B$68="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B68" s="5" t="str">
+        <f>IF($B$63="","",SUMIF(Data!$C:$C,$B$63,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="2" t="str">
-        <f>IF($E$68="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="E68" s="6" t="str">
-        <f>IF(Data!$G$30="","",Data!$G$30)</f>
+        <f>IF($E$68="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E68" s="5" t="str">
+        <f>IF($E$63="","",SUMIF(Data!$C:$C,$E$63,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="2" t="str">
-        <f>IF($H$68="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="H68" s="6" t="str">
-        <f>IF(Data!$G$31="","",Data!$G$31)</f>
+        <f>IF($H$68="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>IF($H$63="","",SUMIF(Data!$C:$C,$H$63,Data!$H:$H))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="str">
-        <f>IF($B$69="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="B69" s="4" t="str">
-        <f>IF(Data!$H$29="","",Data!$H$29)</f>
-        <v/>
-      </c>
+      <c r="A69" s="7">
+        <f>Data!I20</f>
+        <v>0</v>
+      </c>
+      <c r="B69" s="7"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="2" t="str">
-        <f>IF($E$69="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="E69" s="4" t="str">
-        <f>IF(Data!$H$30="","",Data!$H$30)</f>
-        <v/>
-      </c>
+      <c r="D69" s="7">
+        <f>Data!I21</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="7"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="2" t="str">
-        <f>IF($H$69="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="H69" s="4" t="str">
-        <f>IF(Data!$H$31="","",Data!$H$31)</f>
-        <v/>
-      </c>
+      <c r="G69" s="7">
+        <f>Data!I22</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="str">
-        <f>IF($B$70="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B70" s="5" t="str">
-        <f>IF($B$65="","",SUMIF(Data!$C:$C,$B$65,Data!$H:$H))</f>
-        <v/>
-      </c>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="2" t="str">
-        <f>IF($E$70="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E70" s="5" t="str">
-        <f>IF($E$65="","",SUMIF(Data!$C:$C,$E$65,Data!$H:$H))</f>
-        <v/>
-      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="2" t="str">
-        <f>IF($H$70="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H70" s="5" t="str">
-        <f>IF($H$65="","",SUMIF(Data!$C:$C,$H$65,Data!$H:$H))</f>
-        <v/>
-      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="str">
-        <f>IF($B$71="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B71" s="3" t="str">
-        <f>IF(Data!$B$32="","",Data!$B$32)</f>
-        <v/>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="2" t="str">
-        <f>IF($E$71="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E71" s="3" t="str">
-        <f>IF(Data!$B$33="","",Data!$B$33)</f>
-        <v/>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="2" t="str">
-        <f>IF($H$71="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H71" s="3" t="str">
-        <f>IF(Data!$B$34="","",Data!$B$34)</f>
-        <v/>
-      </c>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IF($B$72="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="B72" s="4" t="str">
-        <f>IF(Data!$C$32="","",Data!$C$32)</f>
-        <v/>
-      </c>
-      <c r="C72" s="5"/>
+        <f>IF($B$72="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B72" s="3" t="str">
+        <f>IF(Data!$B$23="","",Data!$B$23)</f>
+        <v/>
+      </c>
+      <c r="C72" s="3"/>
       <c r="D72" s="2" t="str">
-        <f>IF($E$72="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="E72" s="4" t="str">
-        <f>IF(Data!$C$33="","",Data!$C$33)</f>
-        <v/>
-      </c>
-      <c r="F72" s="5"/>
+        <f>IF($E$72="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E72" s="3" t="str">
+        <f>IF(Data!$B$24="","",Data!$B$24)</f>
+        <v/>
+      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="2" t="str">
-        <f>IF($H$72="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="H72" s="4" t="str">
-        <f>IF(Data!$C$34="","",Data!$C$34)</f>
+        <f>IF($H$72="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H72" s="3" t="str">
+        <f>IF(Data!$B$25="","",Data!$B$25)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
-        <f>IF($B$73="","","Модел №:")</f>
+        <f>IF($B$73="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="B73" s="4" t="str">
-        <f>IF(Data!$D$32="","",Data!$D$32)</f>
+        <f>IF(Data!$C$23="","",Data!$C$23)</f>
         <v/>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="2" t="str">
-        <f>IF($E$73="","","Модел №:")</f>
+        <f>IF($E$73="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="E73" s="4" t="str">
-        <f>IF(Data!$D$33="","",Data!$D$33)</f>
+        <f>IF(Data!$C$24="","",Data!$C$24)</f>
         <v/>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="2" t="str">
-        <f>IF($H$73="","","Модел №:")</f>
+        <f>IF($H$73="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="H73" s="4" t="str">
-        <f>IF(Data!$D$34="","",Data!$D$34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(Data!$C$25="","",Data!$C$25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IF($B$74="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B74" s="6" t="str">
-        <f>IF(Data!$F$32="","",Data!$F$32)</f>
+        <f>IF($B$74="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="B74" s="4" t="str">
+        <f>IF(Data!$D$23="","",Data!$D$23)</f>
         <v/>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="2" t="str">
-        <f>IF($E$74="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E74" s="6" t="str">
-        <f>IF(Data!$F$33="","",Data!$F$33)</f>
+        <f>IF($E$74="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f>IF(Data!$D$24="","",Data!$D$24)</f>
         <v/>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="2" t="str">
-        <f>IF($H$74="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H74" s="6" t="str">
-        <f>IF(Data!$F$34="","",Data!$F$34)</f>
+        <f>IF($H$74="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="H74" s="4" t="str">
+        <f>IF(Data!$D$25="","",Data!$D$25)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
-        <f>IF($B$75="","","Ширина:")</f>
+        <f>IF($B$75="","","Височина:")</f>
         <v/>
       </c>
       <c r="B75" s="6" t="str">
-        <f>IF(Data!$G$32="","",Data!$G$32)</f>
+        <f>IF(Data!$F$23="","",Data!$F$23)</f>
         <v/>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="2" t="str">
-        <f>IF($E$75="","","Ширина:")</f>
+        <f>IF($E$75="","","Височина:")</f>
         <v/>
       </c>
       <c r="E75" s="6" t="str">
-        <f>IF(Data!$G$33="","",Data!$G$33)</f>
+        <f>IF(Data!$F$24="","",Data!$F$24)</f>
         <v/>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="2" t="str">
-        <f>IF($H$75="","","Ширина:")</f>
+        <f>IF($H$75="","","Височина:")</f>
         <v/>
       </c>
       <c r="H75" s="6" t="str">
-        <f>IF(Data!$G$34="","",Data!$G$34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF(Data!$F$25="","",Data!$F$25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
-        <f>IF($B$76="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="B76" s="4" t="str">
-        <f>IF(Data!$H$32="","",Data!$H$32)</f>
+        <f>IF($B$76="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B76" s="6" t="str">
+        <f>IF(Data!$G$23="","",Data!$G$23)</f>
         <v/>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="2" t="str">
-        <f>IF($E$76="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="E76" s="4" t="str">
-        <f>IF(Data!$H$33="","",Data!$H$33)</f>
+        <f>IF($E$76="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="E76" s="6" t="str">
+        <f>IF(Data!$G$24="","",Data!$G$24)</f>
         <v/>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="2" t="str">
-        <f>IF($H$76="","","Брой:")</f>
-        <v/>
-      </c>
-      <c r="H76" s="4" t="str">
-        <f>IF(Data!$H$34="","",Data!$H$34)</f>
+        <f>IF($H$76="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H76" s="6" t="str">
+        <f>IF(Data!$G$25="","",Data!$G$25)</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IF($B$77="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B77" s="5" t="str">
-        <f>IF($B$72="","",SUMIF(Data!$C:$C,$B$72,Data!$H:$H))</f>
+        <f>IF($B$77="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="B77" s="4" t="str">
+        <f>IF(Data!$H$23="","",Data!$H$23)</f>
         <v/>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="2" t="str">
-        <f>IF($E$77="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E77" s="5" t="str">
-        <f>IF($E$72="","",SUMIF(Data!$C:$C,$E$72,Data!$H:$H))</f>
+        <f>IF($E$77="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f>IF(Data!$H$24="","",Data!$H$24)</f>
         <v/>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="2" t="str">
-        <f>IF($H$77="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H77" s="5" t="str">
-        <f>IF($H$72="","",SUMIF(Data!$C:$C,$H$72,Data!$H:$H))</f>
+        <f>IF($H$77="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="H77" s="4" t="str">
+        <f>IF(Data!$H$25="","",Data!$H$25)</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
-        <f>IF($B$78="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B78" s="3" t="str">
-        <f>IF(Data!$B$35="","",Data!$B$35)</f>
-        <v/>
-      </c>
-      <c r="C78" s="3"/>
+        <f>IF($B$78="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B78" s="5" t="str">
+        <f>IF($B$73="","",SUMIF(Data!$C:$C,$B$73,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="C78" s="5"/>
       <c r="D78" s="2" t="str">
-        <f>IF($E$78="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E78" s="3" t="str">
-        <f>IF(Data!$B$36="","",Data!$B$36)</f>
-        <v/>
-      </c>
-      <c r="F78" s="3"/>
+        <f>IF($E$78="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E78" s="5" t="str">
+        <f>IF($E$73="","",SUMIF(Data!$C:$C,$E$73,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="F78" s="5"/>
       <c r="G78" s="2" t="str">
-        <f>IF($H$78="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H78" s="3" t="str">
-        <f>IF(Data!$B$37="","",Data!$B$37)</f>
+        <f>IF($H$78="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f>IF($H$73="","",SUMIF(Data!$C:$C,$H$73,Data!$H:$H))</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="str">
-        <f>IF($B$79="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="B79" s="4" t="str">
-        <f>IF(Data!$C$35="","",Data!$C$35)</f>
-        <v/>
-      </c>
+      <c r="A79" s="7">
+        <f>Data!I23</f>
+        <v>0</v>
+      </c>
+      <c r="B79" s="7"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="2" t="str">
-        <f>IF($E$79="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="E79" s="4" t="str">
-        <f>IF(Data!$C$36="","",Data!$C$36)</f>
-        <v/>
-      </c>
+      <c r="D79" s="7">
+        <f>Data!I24</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="7"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="2" t="str">
-        <f>IF($H$79="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="H79" s="4" t="str">
-        <f>IF(Data!$C$37="","",Data!$C$37)</f>
-        <v/>
-      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="5"/>
     </row>
     <row r="80" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="str">
-        <f>IF($B$80="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="B80" s="4" t="str">
-        <f>IF(Data!$D$35="","",Data!$D$35)</f>
-        <v/>
-      </c>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="2" t="str">
-        <f>IF($E$80="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="E80" s="4" t="str">
-        <f>IF(Data!$D$36="","",Data!$D$36)</f>
-        <v/>
-      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="2" t="str">
-        <f>IF($H$80="","","Модел №:")</f>
-        <v/>
-      </c>
-      <c r="H80" s="4" t="str">
-        <f>IF(Data!$D$37="","",Data!$D$37)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="str">
-        <f>IF($B$81="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B81" s="6" t="str">
-        <f>IF(Data!$F$35="","",Data!$F$35)</f>
-        <v/>
-      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="2" t="str">
-        <f>IF($E$81="","","Широчина:")</f>
-        <v/>
-      </c>
-      <c r="E81" s="6" t="str">
-        <f>IF(Data!$F$36="","",Data!$F$36)</f>
-        <v/>
-      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="2" t="str">
-        <f>IF($H$81="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H81" s="6" t="str">
-        <f>IF(Data!$F$37="","",Data!$F$37)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G81" s="2"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
-        <f>IF($B$82="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="B82" s="6" t="str">
-        <f>IF(Data!$G$35="","",Data!$G$35)</f>
-        <v/>
-      </c>
-      <c r="C82" s="5"/>
+        <f>IF($B$82="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B82" s="3" t="str">
+        <f>IF(Data!$B$26="","",Data!$B$26)</f>
+        <v/>
+      </c>
+      <c r="C82" s="3"/>
       <c r="D82" s="2" t="str">
-        <f>IF($E$82="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E82" s="6" t="str">
-        <f>IF(Data!$G$36="","",Data!$G$36)</f>
-        <v/>
-      </c>
-      <c r="F82" s="5"/>
+        <f>IF($E$82="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E82" s="3" t="str">
+        <f>IF(Data!$B$27="","",Data!$B$27)</f>
+        <v/>
+      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="2" t="str">
-        <f>IF($H$82="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="H82" s="6" t="str">
-        <f>IF(Data!$G$37="","",Data!$G$37)</f>
+        <f>IF($H$82="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H82" s="3" t="str">
+        <f>IF(Data!$B$28="","",Data!$B$28)</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
-        <f>IF($B$83="","","Брой:")</f>
+        <f>IF($B$83="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="B83" s="4" t="str">
-        <f>IF(Data!$H$35="","",Data!$H$35)</f>
+        <f>IF(Data!$C$26="","",Data!$C$26)</f>
         <v/>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="2" t="str">
-        <f>IF($E$83="","","Брой:")</f>
+        <f>IF($E$83="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="E83" s="4" t="str">
-        <f>IF(Data!$H$36="","",Data!$H$36)</f>
+        <f>IF(Data!$C$27="","",Data!$C$27)</f>
         <v/>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="2" t="str">
-        <f>IF($H$83="","","Брой:")</f>
+        <f>IF($H$83="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="H83" s="4" t="str">
-        <f>IF(Data!$H$37="","",Data!$H$37)</f>
+        <f>IF(Data!$C$28="","",Data!$C$28)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IF($B$84="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B84" s="5" t="str">
-        <f>IF($B$79="","",SUMIF(Data!$C:$C,$B$79,Data!$H:$H))</f>
+        <f>IF($B$84="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="B84" s="4" t="str">
+        <f>IF(Data!$D$26="","",Data!$D$26)</f>
         <v/>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="2" t="str">
-        <f>IF($E$84="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E84" s="5" t="str">
-        <f>IF($E$79="","",SUMIF(Data!$C:$C,$E$79,Data!$H:$H))</f>
+        <f>IF($E$84="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="E84" s="4" t="str">
+        <f>IF(Data!$D$27="","",Data!$D$27)</f>
         <v/>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="2" t="str">
-        <f>IF($H$84="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H84" s="5" t="str">
-        <f>IF($H$79="","",SUMIF(Data!$C:$C,$H$79,Data!$H:$H))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF($H$84="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="H84" s="4" t="str">
+        <f>IF(Data!$D$28="","",Data!$D$28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
-        <f>IF($B$85="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B85" s="3" t="str">
-        <f>IF(Data!$B$38="","",Data!$B$38)</f>
-        <v/>
-      </c>
-      <c r="C85" s="3"/>
+        <f>IF($B$85="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="B85" s="6" t="str">
+        <f>IF(Data!$F$26="","",Data!$F$26)</f>
+        <v/>
+      </c>
+      <c r="C85" s="5"/>
       <c r="D85" s="2" t="str">
-        <f>IF($E$85="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E85" s="3" t="str">
-        <f>IF(Data!$B$39="","",Data!$B$39)</f>
-        <v/>
-      </c>
-      <c r="F85" s="3"/>
+        <f>IF($E$85="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="E85" s="6" t="str">
+        <f>IF(Data!$F$27="","",Data!$F$27)</f>
+        <v/>
+      </c>
+      <c r="F85" s="5"/>
       <c r="G85" s="2" t="str">
-        <f>IF($H$85="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H85" s="3" t="str">
-        <f>IF(Data!$B$40="","",Data!$B$40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF($H$85="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="H85" s="6" t="str">
+        <f>IF(Data!$F$28="","",Data!$F$28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
-        <f>IF($B$86="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="B86" s="4" t="str">
-        <f>IF(Data!$C$38="","",Data!$C$38)</f>
+        <f>IF($B$86="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B86" s="6" t="str">
+        <f>IF(Data!$G$26="","",Data!$G$26)</f>
         <v/>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="2" t="str">
-        <f>IF($E$86="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="E86" s="4" t="str">
-        <f>IF(Data!$C$39="","",Data!$C$39)</f>
+        <f>IF($E$86="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="E86" s="6" t="str">
+        <f>IF(Data!$G$27="","",Data!$G$27)</f>
         <v/>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="2" t="str">
-        <f>IF($H$86="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="H86" s="4" t="str">
-        <f>IF(Data!$C$40="","",Data!$C$40)</f>
+        <f>IF($H$86="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H86" s="6" t="str">
+        <f>IF(Data!$G$28="","",Data!$G$28)</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
-        <f>IF($B$87="","","Модел №:")</f>
+        <f>IF($B$87="","","Брой:")</f>
         <v/>
       </c>
       <c r="B87" s="4" t="str">
-        <f>IF(Data!$D$38="","",Data!$D$38)</f>
+        <f>IF(Data!$H$26="","",Data!$H$26)</f>
         <v/>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="2" t="str">
-        <f>IF($E$87="","","Модел №:")</f>
+        <f>IF($E$87="","","Брой:")</f>
         <v/>
       </c>
       <c r="E87" s="4" t="str">
-        <f>IF(Data!$D$39="","",Data!$D$39)</f>
+        <f>IF(Data!$H$27="","",Data!$H$27)</f>
         <v/>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="2" t="str">
-        <f>IF($H$87="","","Модел №:")</f>
+        <f>IF($H$87="","","Брой:")</f>
         <v/>
       </c>
       <c r="H87" s="4" t="str">
-        <f>IF(Data!$D$40="","",Data!$D$40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(Data!$H$28="","",Data!$H$28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
-        <f>IF($B$88="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B88" s="6" t="str">
-        <f>IF(Data!$F$38="","",Data!$F$38)</f>
+        <f>IF($B$88="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B88" s="5" t="str">
+        <f>IF($B$83="","",SUMIF(Data!$C:$C,$B$83,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="2" t="str">
-        <f>IF($E$88="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E88" s="6" t="str">
-        <f>IF(Data!$F$39="","",Data!$F$39)</f>
+        <f>IF($E$88="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E88" s="5" t="str">
+        <f>IF($E$83="","",SUMIF(Data!$C:$C,$E$83,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="2" t="str">
-        <f>IF($H$88="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H88" s="6" t="str">
-        <f>IF(Data!$F$40="","",Data!$F$40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF($H$88="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f>IF($H$83="","",SUMIF(Data!$C:$C,$H$83,Data!$H:$H))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IF($B$89="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="B89" s="6" t="str">
-        <f>IF(Data!$G$38="","",Data!$G$38)</f>
-        <v/>
-      </c>
-      <c r="C89" s="5"/>
+        <f>IF($B$89="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B89" s="3" t="str">
+        <f>IF(Data!$B$29="","",Data!$B$29)</f>
+        <v/>
+      </c>
+      <c r="C89" s="3"/>
       <c r="D89" s="2" t="str">
-        <f>IF($E$89="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="E89" s="6" t="str">
-        <f>IF(Data!$G$39="","",Data!$G$39)</f>
-        <v/>
-      </c>
-      <c r="F89" s="5"/>
+        <f>IF($E$89="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E89" s="3" t="str">
+        <f>IF(Data!$B$30="","",Data!$B$30)</f>
+        <v/>
+      </c>
+      <c r="F89" s="3"/>
       <c r="G89" s="2" t="str">
-        <f>IF($H$89="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="H89" s="6" t="str">
-        <f>IF(Data!$G$40="","",Data!$G$40)</f>
+        <f>IF($H$89="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H89" s="3" t="str">
+        <f>IF(Data!$B$31="","",Data!$B$31)</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
-        <f>IF($B$90="","","Брой:")</f>
+        <f>IF($B$90="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="B90" s="4" t="str">
-        <f>IF(Data!$H$38="","",Data!$H$38)</f>
+        <f>IF(Data!$C$29="","",Data!$C$29)</f>
         <v/>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="2" t="str">
-        <f>IF($E$90="","","Брой:")</f>
+        <f>IF($E$90="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="E90" s="4" t="str">
-        <f>IF(Data!$H$39="","",Data!$H$39)</f>
+        <f>IF(Data!$C$30="","",Data!$C$30)</f>
         <v/>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="2" t="str">
-        <f>IF($H$90="","","Брой:")</f>
+        <f>IF($H$90="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="H90" s="4" t="str">
-        <f>IF(Data!$H$40="","",Data!$H$40)</f>
+        <f>IF(Data!$C$31="","",Data!$C$31)</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
-        <f>IF($B$91="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B91" s="5" t="str">
-        <f>IF($B$86="","",SUMIF(Data!$C:$C,$B$86,Data!$H:$H))</f>
+        <f>IF($B$91="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="B91" s="4" t="str">
+        <f>IF(Data!$D$29="","",Data!$D$29)</f>
         <v/>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="2" t="str">
-        <f>IF($E$91="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E91" s="5" t="str">
-        <f>IF($E$86="","",SUMIF(Data!$C:$C,$E$86,Data!$H:$H))</f>
+        <f>IF($E$91="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f>IF(Data!$D$30="","",Data!$D$30)</f>
         <v/>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="2" t="str">
-        <f>IF($H$91="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H91" s="5" t="str">
-        <f>IF($H$86="","",SUMIF(Data!$C:$C,$H$86,Data!$H:$H))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF($H$91="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="H91" s="4" t="str">
+        <f>IF(Data!$D$31="","",Data!$D$31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
-        <f>IF($B$92="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="B92" s="3" t="str">
-        <f>IF(Data!$B$41="","",Data!$B$41)</f>
-        <v/>
-      </c>
-      <c r="C92" s="3"/>
+        <f>IF($B$92="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="B92" s="6" t="str">
+        <f>IF(Data!$F$29="","",Data!$F$29)</f>
+        <v/>
+      </c>
+      <c r="C92" s="5"/>
       <c r="D92" s="2" t="str">
-        <f>IF($E$92="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="E92" s="3" t="str">
-        <f>IF(Data!$B$42="","",Data!$B$42)</f>
-        <v/>
-      </c>
-      <c r="F92" s="3"/>
+        <f>IF($E$92="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="E92" s="6" t="str">
+        <f>IF(Data!$F$30="","",Data!$F$30)</f>
+        <v/>
+      </c>
+      <c r="F92" s="5"/>
       <c r="G92" s="2" t="str">
-        <f>IF($H$92="","","Клиент:")</f>
-        <v/>
-      </c>
-      <c r="H92" s="3" t="str">
-        <f>IF(Data!$B$43="","",Data!$B$43)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF($H$92="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="H92" s="6" t="str">
+        <f>IF(Data!$F$31="","",Data!$F$31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
-        <f>IF($B$93="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="B93" s="4" t="str">
-        <f>IF(Data!$C$41="","",Data!$C$41)</f>
+        <f>IF($B$93="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B93" s="6" t="str">
+        <f>IF(Data!$G$29="","",Data!$G$29)</f>
         <v/>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="2" t="str">
-        <f>IF($E$93="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="E93" s="4" t="str">
-        <f>IF(Data!$C$42="","",Data!$C$42)</f>
+        <f>IF($E$93="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="E93" s="6" t="str">
+        <f>IF(Data!$G$30="","",Data!$G$30)</f>
         <v/>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="2" t="str">
-        <f>IF($H$93="","","Поръчка №:")</f>
-        <v/>
-      </c>
-      <c r="H93" s="4" t="str">
-        <f>IF(Data!$C$43="","",Data!$C$43)</f>
+        <f>IF($H$93="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H93" s="6" t="str">
+        <f>IF(Data!$G$31="","",Data!$G$31)</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
-        <f>IF($B$94="","","Модел №:")</f>
+        <f>IF($B$94="","","Брой:")</f>
         <v/>
       </c>
       <c r="B94" s="4" t="str">
-        <f>IF(Data!$D$41="","",Data!$D$41)</f>
+        <f>IF(Data!$H$29="","",Data!$H$29)</f>
         <v/>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="2" t="str">
-        <f>IF($E$94="","","Модел №:")</f>
+        <f>IF($E$94="","","Брой:")</f>
         <v/>
       </c>
       <c r="E94" s="4" t="str">
-        <f>IF(Data!$D$42="","",Data!$D$42)</f>
+        <f>IF(Data!$H$30="","",Data!$H$30)</f>
         <v/>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="2" t="str">
-        <f>IF($H$94="","","Модел №:")</f>
+        <f>IF($H$94="","","Брой:")</f>
         <v/>
       </c>
       <c r="H94" s="4" t="str">
-        <f>IF(Data!$D$43="","",Data!$D$43)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(Data!$H$31="","",Data!$H$31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IF($B$95="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="B95" s="6" t="str">
-        <f>IF(Data!$F$41="","",Data!$F$41)</f>
+        <f>IF($B$95="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B95" s="5" t="str">
+        <f>IF($B$90="","",SUMIF(Data!$C:$C,$B$90,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="2" t="str">
-        <f>IF($E$95="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="E95" s="6" t="str">
-        <f>IF(Data!$F$42="","",Data!$F$42)</f>
+        <f>IF($E$95="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E95" s="5" t="str">
+        <f>IF($E$90="","",SUMIF(Data!$C:$C,$E$90,Data!$H:$H))</f>
         <v/>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="2" t="str">
-        <f>IF($H$95="","","Височина:")</f>
-        <v/>
-      </c>
-      <c r="H95" s="6" t="str">
-        <f>IF(Data!$F$43="","",Data!$F$43)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF($H$95="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f>IF($H$90="","",SUMIF(Data!$C:$C,$H$90,Data!$H:$H))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
-        <f>IF($B$96="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="B96" s="6" t="str">
-        <f>IF(Data!$G$41="","",Data!$G$41)</f>
-        <v/>
-      </c>
-      <c r="C96" s="5"/>
+        <f>IF($B$96="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B96" s="3" t="str">
+        <f>IF(Data!$B$32="","",Data!$B$32)</f>
+        <v/>
+      </c>
+      <c r="C96" s="3"/>
       <c r="D96" s="2" t="str">
-        <f>IF($E$96="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="E96" s="6" t="str">
-        <f>IF(Data!$G$42="","",Data!$G$42)</f>
-        <v/>
-      </c>
-      <c r="F96" s="5"/>
+        <f>IF($E$96="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E96" s="3" t="str">
+        <f>IF(Data!$B$33="","",Data!$B$33)</f>
+        <v/>
+      </c>
+      <c r="F96" s="3"/>
       <c r="G96" s="2" t="str">
-        <f>IF($H$96="","","Ширина:")</f>
-        <v/>
-      </c>
-      <c r="H96" s="6" t="str">
-        <f>IF(Data!$G$43="","",Data!$G$43)</f>
+        <f>IF($H$96="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H96" s="3" t="str">
+        <f>IF(Data!$B$34="","",Data!$B$34)</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
-        <f>IF($B$97="","","Брой:")</f>
+        <f>IF($B$97="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="B97" s="4" t="str">
-        <f>IF(Data!$H$41="","",Data!$H$41)</f>
+        <f>IF(Data!$C$32="","",Data!$C$32)</f>
         <v/>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="2" t="str">
-        <f>IF($E$97="","","Брой:")</f>
+        <f>IF($E$97="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="E97" s="4" t="str">
-        <f>IF(Data!$H$42="","",Data!$H$42)</f>
+        <f>IF(Data!$C$33="","",Data!$C$33)</f>
         <v/>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="2" t="str">
-        <f>IF($H$97="","","Брой:")</f>
+        <f>IF($H$97="","","Поръчка №:")</f>
         <v/>
       </c>
       <c r="H97" s="4" t="str">
-        <f>IF(Data!$H$43="","",Data!$H$43)</f>
+        <f>IF(Data!$C$34="","",Data!$C$34)</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
-        <f>IF($B$98="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="B98" s="5" t="str">
-        <f>IF($B$93="","",SUMIF(Data!$C:$C,$B$93,Data!$H:$H))</f>
+        <f>IF($B$98="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="B98" s="4" t="str">
+        <f>IF(Data!$D$32="","",Data!$D$32)</f>
         <v/>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="2" t="str">
-        <f>IF($E$98="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="E98" s="5" t="str">
-        <f>IF($E$93="","",SUMIF(Data!$C:$C,$E$93,Data!$H:$H))</f>
+        <f>IF($E$98="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="E98" s="4" t="str">
+        <f>IF(Data!$D$33="","",Data!$D$33)</f>
         <v/>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="2" t="str">
-        <f>IF($H$98="","","Общ брой:")</f>
-        <v/>
-      </c>
-      <c r="H98" s="5" t="str">
-        <f>IF($H$93="","",SUMIF(Data!$C:$C,$H$93,Data!$H:$H))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
-      <c r="B99" s="5"/>
+        <f>IF($H$98="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="H98" s="4" t="str">
+        <f>IF(Data!$D$34="","",Data!$D$34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="str">
+        <f>IF($B$99="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="B99" s="6" t="str">
+        <f>IF(Data!$F$32="","",Data!$F$32)</f>
+        <v/>
+      </c>
       <c r="C99" s="5"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="5"/>
+      <c r="D99" s="2" t="str">
+        <f>IF($E$99="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="E99" s="6" t="str">
+        <f>IF(Data!$F$33="","",Data!$F$33)</f>
+        <v/>
+      </c>
       <c r="F99" s="5"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="5"/>
-    </row>
-    <row r="100" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="6"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="6"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="6"/>
-    </row>
-    <row r="102" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="4"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="4"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="5"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="5"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="5"/>
+      <c r="G99" s="2" t="str">
+        <f>IF($H$99="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="H99" s="6" t="str">
+        <f>IF(Data!$F$34="","",Data!$F$34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="str">
+        <f>IF($B$100="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B100" s="6" t="str">
+        <f>IF(Data!$G$32="","",Data!$G$32)</f>
+        <v/>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="2" t="str">
+        <f>IF($E$100="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="E100" s="6" t="str">
+        <f>IF(Data!$G$33="","",Data!$G$33)</f>
+        <v/>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="2" t="str">
+        <f>IF($H$100="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H100" s="6" t="str">
+        <f>IF(Data!$G$34="","",Data!$G$34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="str">
+        <f>IF($B$101="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="B101" s="4" t="str">
+        <f>IF(Data!$H$32="","",Data!$H$32)</f>
+        <v/>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="2" t="str">
+        <f>IF($E$101="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="E101" s="4" t="str">
+        <f>IF(Data!$H$33="","",Data!$H$33)</f>
+        <v/>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="2" t="str">
+        <f>IF($H$101="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="H101" s="4" t="str">
+        <f>IF(Data!$H$34="","",Data!$H$34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="str">
+        <f>IF($B$102="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B102" s="5" t="str">
+        <f>IF($B$97="","",SUMIF(Data!$C:$C,$B$97,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="2" t="str">
+        <f>IF($E$102="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E102" s="5" t="str">
+        <f>IF($E$97="","",SUMIF(Data!$C:$C,$E$97,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="2" t="str">
+        <f>IF($H$102="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f>IF($H$97="","",SUMIF(Data!$C:$C,$H$97,Data!$H:$H))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="str">
+        <f>IF($B$103="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B103" s="3" t="str">
+        <f>IF(Data!$B$35="","",Data!$B$35)</f>
+        <v/>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="2" t="str">
+        <f>IF($E$103="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E103" s="3" t="str">
+        <f>IF(Data!$B$36="","",Data!$B$36)</f>
+        <v/>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="2" t="str">
+        <f>IF($H$103="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H103" s="3" t="str">
+        <f>IF(Data!$B$37="","",Data!$B$37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="str">
+        <f>IF($B$104="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="B104" s="4" t="str">
+        <f>IF(Data!$C$35="","",Data!$C$35)</f>
+        <v/>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="2" t="str">
+        <f>IF($E$104="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="E104" s="4" t="str">
+        <f>IF(Data!$C$36="","",Data!$C$36)</f>
+        <v/>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="2" t="str">
+        <f>IF($H$104="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="H104" s="4" t="str">
+        <f>IF(Data!$C$37="","",Data!$C$37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="str">
+        <f>IF($B$105="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="B105" s="4" t="str">
+        <f>IF(Data!$D$35="","",Data!$D$35)</f>
+        <v/>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="2" t="str">
+        <f>IF($E$105="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="E105" s="4" t="str">
+        <f>IF(Data!$D$36="","",Data!$D$36)</f>
+        <v/>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="2" t="str">
+        <f>IF($H$105="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="H105" s="4" t="str">
+        <f>IF(Data!$D$37="","",Data!$D$37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="str">
+        <f>IF($B$106="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="B106" s="6" t="str">
+        <f>IF(Data!$F$35="","",Data!$F$35)</f>
+        <v/>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="2" t="str">
+        <f>IF($E$106="","","Широчина:")</f>
+        <v/>
+      </c>
+      <c r="E106" s="6" t="str">
+        <f>IF(Data!$F$36="","",Data!$F$36)</f>
+        <v/>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="2" t="str">
+        <f>IF($H$106="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="H106" s="6" t="str">
+        <f>IF(Data!$F$37="","",Data!$F$37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="str">
+        <f>IF($B$107="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B107" s="6" t="str">
+        <f>IF(Data!$G$35="","",Data!$G$35)</f>
+        <v/>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="2" t="str">
+        <f>IF($E$107="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="E107" s="6" t="str">
+        <f>IF(Data!$G$36="","",Data!$G$36)</f>
+        <v/>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="2" t="str">
+        <f>IF($H$107="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H107" s="6" t="str">
+        <f>IF(Data!$G$37="","",Data!$G$37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="str">
+        <f>IF($B$108="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="B108" s="4" t="str">
+        <f>IF(Data!$H$35="","",Data!$H$35)</f>
+        <v/>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="2" t="str">
+        <f>IF($E$108="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="E108" s="4" t="str">
+        <f>IF(Data!$H$36="","",Data!$H$36)</f>
+        <v/>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="2" t="str">
+        <f>IF($H$108="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="H108" s="4" t="str">
+        <f>IF(Data!$H$37="","",Data!$H$37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="str">
+        <f>IF($B$109="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B109" s="5" t="str">
+        <f>IF($B$104="","",SUMIF(Data!$C:$C,$B$104,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="2" t="str">
+        <f>IF($E$109="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E109" s="5" t="str">
+        <f>IF($E$104="","",SUMIF(Data!$C:$C,$E$104,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="2" t="str">
+        <f>IF($H$109="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H109" s="5" t="str">
+        <f>IF($H$104="","",SUMIF(Data!$C:$C,$H$104,Data!$H:$H))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="str">
+        <f>IF($B$110="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B110" s="3" t="str">
+        <f>IF(Data!$B$38="","",Data!$B$38)</f>
+        <v/>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="2" t="str">
+        <f>IF($E$110="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E110" s="3" t="str">
+        <f>IF(Data!$B$39="","",Data!$B$39)</f>
+        <v/>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="2" t="str">
+        <f>IF($H$110="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H110" s="3" t="str">
+        <f>IF(Data!$B$40="","",Data!$B$40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="str">
+        <f>IF($B$111="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="B111" s="4" t="str">
+        <f>IF(Data!$C$38="","",Data!$C$38)</f>
+        <v/>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="2" t="str">
+        <f>IF($E$111="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="E111" s="4" t="str">
+        <f>IF(Data!$C$39="","",Data!$C$39)</f>
+        <v/>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="2" t="str">
+        <f>IF($H$111="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="H111" s="4" t="str">
+        <f>IF(Data!$C$40="","",Data!$C$40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="str">
+        <f>IF($B$112="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="B112" s="4" t="str">
+        <f>IF(Data!$D$38="","",Data!$D$38)</f>
+        <v/>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="2" t="str">
+        <f>IF($E$112="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="E112" s="4" t="str">
+        <f>IF(Data!$D$39="","",Data!$D$39)</f>
+        <v/>
+      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="2" t="str">
+        <f>IF($H$112="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="H112" s="4" t="str">
+        <f>IF(Data!$D$40="","",Data!$D$40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="str">
+        <f>IF($B$113="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="B113" s="6" t="str">
+        <f>IF(Data!$F$38="","",Data!$F$38)</f>
+        <v/>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="2" t="str">
+        <f>IF($E$113="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="E113" s="6" t="str">
+        <f>IF(Data!$F$39="","",Data!$F$39)</f>
+        <v/>
+      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="2" t="str">
+        <f>IF($H$113="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="H113" s="6" t="str">
+        <f>IF(Data!$F$40="","",Data!$F$40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="str">
+        <f>IF($B$114="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B114" s="6" t="str">
+        <f>IF(Data!$G$38="","",Data!$G$38)</f>
+        <v/>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="2" t="str">
+        <f>IF($E$114="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="E114" s="6" t="str">
+        <f>IF(Data!$G$39="","",Data!$G$39)</f>
+        <v/>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="2" t="str">
+        <f>IF($H$114="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H114" s="6" t="str">
+        <f>IF(Data!$G$40="","",Data!$G$40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="str">
+        <f>IF($B$115="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="B115" s="4" t="str">
+        <f>IF(Data!$H$38="","",Data!$H$38)</f>
+        <v/>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="2" t="str">
+        <f>IF($E$115="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="E115" s="4" t="str">
+        <f>IF(Data!$H$39="","",Data!$H$39)</f>
+        <v/>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="2" t="str">
+        <f>IF($H$115="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="H115" s="4" t="str">
+        <f>IF(Data!$H$40="","",Data!$H$40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="str">
+        <f>IF($B$116="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B116" s="5" t="str">
+        <f>IF($B$111="","",SUMIF(Data!$C:$C,$B$111,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="2" t="str">
+        <f>IF($E$116="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E116" s="5" t="str">
+        <f>IF($E$111="","",SUMIF(Data!$C:$C,$E$111,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="2" t="str">
+        <f>IF($H$116="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H116" s="5" t="str">
+        <f>IF($H$111="","",SUMIF(Data!$C:$C,$H$111,Data!$H:$H))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="str">
+        <f>IF($B$117="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="B117" s="3" t="str">
+        <f>IF(Data!$B$41="","",Data!$B$41)</f>
+        <v/>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="2" t="str">
+        <f>IF($E$117="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="E117" s="3" t="str">
+        <f>IF(Data!$B$42="","",Data!$B$42)</f>
+        <v/>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="2" t="str">
+        <f>IF($H$117="","","Клиент:")</f>
+        <v/>
+      </c>
+      <c r="H117" s="3" t="str">
+        <f>IF(Data!$B$43="","",Data!$B$43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="str">
+        <f>IF($B$118="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="B118" s="4" t="str">
+        <f>IF(Data!$C$41="","",Data!$C$41)</f>
+        <v/>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="2" t="str">
+        <f>IF($E$118="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="E118" s="4" t="str">
+        <f>IF(Data!$C$42="","",Data!$C$42)</f>
+        <v/>
+      </c>
+      <c r="F118" s="5"/>
+      <c r="G118" s="2" t="str">
+        <f>IF($H$118="","","Поръчка №:")</f>
+        <v/>
+      </c>
+      <c r="H118" s="4" t="str">
+        <f>IF(Data!$C$43="","",Data!$C$43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="str">
+        <f>IF($B$119="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="B119" s="4" t="str">
+        <f>IF(Data!$D$41="","",Data!$D$41)</f>
+        <v/>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="2" t="str">
+        <f>IF($E$119="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="E119" s="4" t="str">
+        <f>IF(Data!$D$42="","",Data!$D$42)</f>
+        <v/>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="2" t="str">
+        <f>IF($H$119="","","Модел №:")</f>
+        <v/>
+      </c>
+      <c r="H119" s="4" t="str">
+        <f>IF(Data!$D$43="","",Data!$D$43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="str">
+        <f>IF($B$120="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="B120" s="6" t="str">
+        <f>IF(Data!$F$41="","",Data!$F$41)</f>
+        <v/>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="2" t="str">
+        <f>IF($E$120="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="E120" s="6" t="str">
+        <f>IF(Data!$F$42="","",Data!$F$42)</f>
+        <v/>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="2" t="str">
+        <f>IF($H$120="","","Височина:")</f>
+        <v/>
+      </c>
+      <c r="H120" s="6" t="str">
+        <f>IF(Data!$F$43="","",Data!$F$43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="str">
+        <f>IF($B$121="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="B121" s="6" t="str">
+        <f>IF(Data!$G$41="","",Data!$G$41)</f>
+        <v/>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="2" t="str">
+        <f>IF($E$121="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="E121" s="6" t="str">
+        <f>IF(Data!$G$42="","",Data!$G$42)</f>
+        <v/>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="2" t="str">
+        <f>IF($H$121="","","Ширина:")</f>
+        <v/>
+      </c>
+      <c r="H121" s="6" t="str">
+        <f>IF(Data!$G$43="","",Data!$G$43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="str">
+        <f>IF($B$122="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="B122" s="4" t="str">
+        <f>IF(Data!$H$41="","",Data!$H$41)</f>
+        <v/>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="2" t="str">
+        <f>IF($E$122="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="E122" s="4" t="str">
+        <f>IF(Data!$H$42="","",Data!$H$42)</f>
+        <v/>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="2" t="str">
+        <f>IF($H$122="","","Брой:")</f>
+        <v/>
+      </c>
+      <c r="H122" s="4" t="str">
+        <f>IF(Data!$H$43="","",Data!$H$43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="str">
+        <f>IF($B$123="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="B123" s="5" t="str">
+        <f>IF($B$118="","",SUMIF(Data!$C:$C,$B$118,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="2" t="str">
+        <f>IF($E$123="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="E123" s="5" t="str">
+        <f>IF($E$118="","",SUMIF(Data!$C:$C,$E$118,Data!$H:$H))</f>
+        <v/>
+      </c>
+      <c r="F123" s="5"/>
+      <c r="G123" s="2" t="str">
+        <f>IF($H$123="","","Общ брой:")</f>
+        <v/>
+      </c>
+      <c r="H123" s="5" t="str">
+        <f>IF($H$118="","",SUMIF(Data!$C:$C,$H$118,Data!$H:$H))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="6"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="6"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2"/>
+      <c r="B127" s="4"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="4"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2"/>
+      <c r="B128" s="5"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="5"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="23">
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="D18:E20"/>
+    <mergeCell ref="G18:H20"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="G8:H10"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:E40"/>
+    <mergeCell ref="G38:H40"/>
+    <mergeCell ref="A28:B30"/>
+    <mergeCell ref="D28:E30"/>
+    <mergeCell ref="G28:H30"/>
+    <mergeCell ref="A59:B61"/>
+    <mergeCell ref="D59:E61"/>
+    <mergeCell ref="G59:H61"/>
+    <mergeCell ref="A48:B50"/>
+    <mergeCell ref="D48:E50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="A79:B81"/>
+    <mergeCell ref="D79:E81"/>
+    <mergeCell ref="A69:B71"/>
+    <mergeCell ref="D69:E71"/>
+    <mergeCell ref="G69:H71"/>
+  </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.78740157480314965" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7527,8 +7888,8 @@
   </sheetPr>
   <dimension ref="B1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="A2:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
